--- a/benchmarks/parallel-multi-intersect/one-share.xlsx
+++ b/benchmarks/parallel-multi-intersect/one-share.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8005,7 +8005,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>intersect number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8128,12 +8128,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>key error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3665743027431235E-2"/>
+              <c:y val="0.41607645910025753"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9723,7 +9730,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9734,7 +9741,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9745,7 +9752,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9293311" cy="6075405"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9772,7 +9779,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9293311" cy="6075405"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>

--- a/benchmarks/parallel-multi-intersect/one-share.xlsx
+++ b/benchmarks/parallel-multi-intersect/one-share.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8284,7 +8284,7 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="20"/>
-        <c:tickMarkSkip val="1"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -8405,6 +8405,39 @@
         <c:crossAx val="567292096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9931,7 +9964,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9942,7 +9975,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/benchmarks/parallel-multi-intersect/one-share.xlsx
+++ b/benchmarks/parallel-multi-intersect/one-share.xlsx
@@ -1831,7 +1831,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1 thread</c:v>
+            <c:v>1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -2942,7 +2942,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2 threads</c:v>
+            <c:v>2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -4083,12 +4083,12 @@
           <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4 threads</c:v>
+            <c:v>4 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="15875" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4099,11 +4099,11 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="70AD47"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5311,12 +5311,14 @@
           <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>8 threads</c:v>
+            <c:v>8 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5327,11 +5329,15 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="4472C4">
+                    <a:lumMod val="75000"/>
+                  </a:srgbClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6650,7 +6656,7 @@
           <c:idx val="2"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>16 threads</c:v>
+            <c:v>16 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -8206,7 +8212,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>intersect number</a:t>
+                  <a:t>Intersect Number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8329,7 +8335,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>key error</a:t>
+                  <a:t>Key Error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9964,10 +9970,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -9986,7 +9993,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9296105" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
